--- a/biology/Botanique/Liste_des_espèces_du_genre_Eugenia/Liste_des_espèces_du_genre_Eugenia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Eugenia/Liste_des_espèces_du_genre_Eugenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Eugenia</t>
+          <t>Liste_des_espèces_du_genre_Eugenia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eugenia est l'un des plus grands genres des Angiospermes. Eugenia (famille des Myrtaceae) est constitué d'arbres ou d'arbustes largement distribués sur tous les continents, surtout dans les régions tropicales. Selon le Plants of the world online des jardins botaniques de Kew, le genre Eugenia comprend 1174 espèces acceptées (août 2022)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eugenia est l'un des plus grands genres des Angiospermes. Eugenia (famille des Myrtaceae) est constitué d'arbres ou d'arbustes largement distribués sur tous les continents, surtout dans les régions tropicales. Selon le Plants of the world online des jardins botaniques de Kew, le genre Eugenia comprend 1174 espèces acceptées (août 2022).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Eugenia</t>
+          <t>Liste_des_espèces_du_genre_Eugenia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eugenia abbreviata Urb.
@@ -1647,7 +1661,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Eugenia</t>
+          <t>Liste_des_espèces_du_genre_Eugenia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1665,7 +1679,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ (en) « Eugenia P.Micheli ex L. | Plants of the World Online | Kew Science », sur Plants of the World Online (consulté le 28 août 2022)
